--- a/data/workbk.xlsx
+++ b/data/workbk.xlsx
@@ -14,37 +14,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>yuvi</t>
-  </si>
-  <si>
-    <t>jkasgdf</t>
-  </si>
-  <si>
-    <t>aswin</t>
-  </si>
-  <si>
-    <t>sdjfgsad</t>
-  </si>
-  <si>
-    <t>raj</t>
-  </si>
-  <si>
-    <t>lus</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>CTS</t>
+  </si>
+  <si>
+    <t>Aswin</t>
+  </si>
+  <si>
+    <t>Cold Call</t>
+  </si>
+  <si>
+    <t>Conference</t>
+  </si>
+  <si>
+    <t>Direct Mail</t>
+  </si>
+  <si>
+    <t>Existing Customer</t>
+  </si>
+  <si>
+    <t>Yuvaraj</t>
+  </si>
+  <si>
+    <t>tata</t>
+  </si>
+  <si>
+    <t>infosys</t>
+  </si>
+  <si>
+    <t>Manju</t>
+  </si>
+  <si>
+    <t>TechM</t>
+  </si>
+  <si>
+    <t>Manjula</t>
+  </si>
+  <si>
+    <t>MarketingCampaign</t>
+  </si>
+  <si>
+    <t>Affiliate Sites</t>
+  </si>
+  <si>
+    <t>Automobile</t>
+  </si>
+  <si>
+    <t>Car and Driver</t>
+  </si>
+  <si>
+    <t>Catalog Generating Marketing Campaigns</t>
+  </si>
+  <si>
+    <t>PhomeNumber</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>7894561323</t>
+  </si>
+  <si>
+    <t>7894561324</t>
+  </si>
+  <si>
+    <t>7894561325</t>
+  </si>
+  <si>
+    <t>7894561326</t>
+  </si>
+  <si>
+    <t>aswin@gmail.com</t>
+  </si>
+  <si>
+    <t>yuvaraj@gmail.com</t>
+  </si>
+  <si>
+    <t>manju@gmail.com</t>
+  </si>
+  <si>
+    <t>manjula@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,13 +118,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -70,13 +156,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -379,59 +471,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>